--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sema3c-Plxnd1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sema3c-Plxnd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.3744308199845</v>
+        <v>17.42000266666667</v>
       </c>
       <c r="H2">
-        <v>16.3744308199845</v>
+        <v>52.260008</v>
       </c>
       <c r="I2">
-        <v>0.9230434905555407</v>
+        <v>0.9068449954692464</v>
       </c>
       <c r="J2">
-        <v>0.9230434905555407</v>
+        <v>0.9068449954692462</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>66.5673407076866</v>
+        <v>87.82520466666666</v>
       </c>
       <c r="N2">
-        <v>66.5673407076866</v>
+        <v>263.475614</v>
       </c>
       <c r="O2">
-        <v>0.3585943151292527</v>
+        <v>0.4113681414249258</v>
       </c>
       <c r="P2">
-        <v>0.3585943151292527</v>
+        <v>0.4113681414249258</v>
       </c>
       <c r="Q2">
-        <v>1090.002315288352</v>
+        <v>1529.915299493879</v>
       </c>
       <c r="R2">
-        <v>1090.002315288352</v>
+        <v>13769.23769544491</v>
       </c>
       <c r="S2">
-        <v>0.3309981483302789</v>
+        <v>0.3730471403466791</v>
       </c>
       <c r="T2">
-        <v>0.3309981483302789</v>
+        <v>0.3730471403466791</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.3744308199845</v>
+        <v>17.42000266666667</v>
       </c>
       <c r="H3">
-        <v>16.3744308199845</v>
+        <v>52.260008</v>
       </c>
       <c r="I3">
-        <v>0.9230434905555407</v>
+        <v>0.9068449954692464</v>
       </c>
       <c r="J3">
-        <v>0.9230434905555407</v>
+        <v>0.9068449954692462</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.2935938373708</v>
+        <v>22.364335</v>
       </c>
       <c r="N3">
-        <v>22.2935938373708</v>
+        <v>67.09300499999999</v>
       </c>
       <c r="O3">
-        <v>0.1200942673823621</v>
+        <v>0.1047532420570173</v>
       </c>
       <c r="P3">
-        <v>0.1200942673823621</v>
+        <v>0.1047532420570173</v>
       </c>
       <c r="Q3">
-        <v>365.0449100188609</v>
+        <v>389.5867753382266</v>
       </c>
       <c r="R3">
-        <v>365.0449100188609</v>
+        <v>3506.280978044039</v>
       </c>
       <c r="S3">
-        <v>0.1108522317603259</v>
+        <v>0.09499495331858469</v>
       </c>
       <c r="T3">
-        <v>0.1108522317603259</v>
+        <v>0.09499495331858468</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.3744308199845</v>
+        <v>17.42000266666667</v>
       </c>
       <c r="H4">
-        <v>16.3744308199845</v>
+        <v>52.260008</v>
       </c>
       <c r="I4">
-        <v>0.9230434905555407</v>
+        <v>0.9068449954692464</v>
       </c>
       <c r="J4">
-        <v>0.9230434905555407</v>
+        <v>0.9068449954692462</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>28.9171610286923</v>
+        <v>32.00656633333333</v>
       </c>
       <c r="N4">
-        <v>28.9171610286923</v>
+        <v>96.019699</v>
       </c>
       <c r="O4">
-        <v>0.1557750308834081</v>
+        <v>0.1499168918069617</v>
       </c>
       <c r="P4">
-        <v>0.1557750308834081</v>
+        <v>0.1499168918069617</v>
       </c>
       <c r="Q4">
-        <v>473.5020527746739</v>
+        <v>557.5544708775102</v>
       </c>
       <c r="R4">
-        <v>473.5020527746739</v>
+        <v>5017.990237897592</v>
       </c>
       <c r="S4">
-        <v>0.1437871282480182</v>
+        <v>0.1359513830714477</v>
       </c>
       <c r="T4">
-        <v>0.1437871282480182</v>
+        <v>0.1359513830714477</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.3744308199845</v>
+        <v>17.42000266666667</v>
       </c>
       <c r="H5">
-        <v>16.3744308199845</v>
+        <v>52.260008</v>
       </c>
       <c r="I5">
-        <v>0.9230434905555407</v>
+        <v>0.9068449954692464</v>
       </c>
       <c r="J5">
-        <v>0.9230434905555407</v>
+        <v>0.9068449954692462</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>36.1340634137603</v>
+        <v>36.24501033333333</v>
       </c>
       <c r="N5">
-        <v>36.1340634137603</v>
+        <v>108.735031</v>
       </c>
       <c r="O5">
-        <v>0.1946520558721696</v>
+        <v>0.1697695165452834</v>
       </c>
       <c r="P5">
-        <v>0.1946520558721696</v>
+        <v>0.1697695165452834</v>
       </c>
       <c r="Q5">
-        <v>591.674721613551</v>
+        <v>631.3881766600275</v>
       </c>
       <c r="R5">
-        <v>591.674721613551</v>
+        <v>5682.493589940248</v>
       </c>
       <c r="S5">
-        <v>0.1796723130960595</v>
+        <v>0.1539546364623236</v>
       </c>
       <c r="T5">
-        <v>0.1796723130960595</v>
+        <v>0.1539546364623236</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.3744308199845</v>
+        <v>17.42000266666667</v>
       </c>
       <c r="H6">
-        <v>16.3744308199845</v>
+        <v>52.260008</v>
       </c>
       <c r="I6">
-        <v>0.9230434905555407</v>
+        <v>0.9068449954692464</v>
       </c>
       <c r="J6">
-        <v>0.9230434905555407</v>
+        <v>0.9068449954692462</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.88231356755245</v>
+        <v>7.206563333333333</v>
       </c>
       <c r="N6">
-        <v>6.88231356755245</v>
+        <v>21.61969</v>
       </c>
       <c r="O6">
-        <v>0.03707461487906872</v>
+        <v>0.03375512275486358</v>
       </c>
       <c r="P6">
-        <v>0.03707461487906872</v>
+        <v>0.03375512275486358</v>
       </c>
       <c r="Q6">
-        <v>112.6939673933283</v>
+        <v>125.5383524841689</v>
       </c>
       <c r="R6">
-        <v>112.6939673933283</v>
+        <v>1129.84517235752</v>
       </c>
       <c r="S6">
-        <v>0.03422148192897798</v>
+        <v>0.03061066414169812</v>
       </c>
       <c r="T6">
-        <v>0.03422148192897798</v>
+        <v>0.03061066414169811</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.3744308199845</v>
+        <v>17.42000266666667</v>
       </c>
       <c r="H7">
-        <v>16.3744308199845</v>
+        <v>52.260008</v>
       </c>
       <c r="I7">
-        <v>0.9230434905555407</v>
+        <v>0.9068449954692464</v>
       </c>
       <c r="J7">
-        <v>0.9230434905555407</v>
+        <v>0.9068449954692462</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.8396490670076</v>
+        <v>27.84771733333333</v>
       </c>
       <c r="N7">
-        <v>24.8396490670076</v>
+        <v>83.54315199999999</v>
       </c>
       <c r="O7">
-        <v>0.1338097158537389</v>
+        <v>0.1304370854109484</v>
       </c>
       <c r="P7">
-        <v>0.1338097158537389</v>
+        <v>0.1304370854109484</v>
       </c>
       <c r="Q7">
-        <v>406.7351152404084</v>
+        <v>485.1073102072461</v>
       </c>
       <c r="R7">
-        <v>406.7351152404084</v>
+        <v>4365.965791865216</v>
       </c>
       <c r="S7">
-        <v>0.1235121871918802</v>
+        <v>0.1182862181285132</v>
       </c>
       <c r="T7">
-        <v>0.1235121871918802</v>
+        <v>0.1182862181285132</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.36517840485216</v>
+        <v>0.01471233333333333</v>
       </c>
       <c r="H8">
-        <v>1.36517840485216</v>
+        <v>0.044137</v>
       </c>
       <c r="I8">
-        <v>0.07695650944445932</v>
+        <v>0.0007658900007253373</v>
       </c>
       <c r="J8">
-        <v>0.07695650944445932</v>
+        <v>0.0007658900007253371</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>66.5673407076866</v>
+        <v>87.82520466666666</v>
       </c>
       <c r="N8">
-        <v>66.5673407076866</v>
+        <v>263.475614</v>
       </c>
       <c r="O8">
-        <v>0.3585943151292527</v>
+        <v>0.4113681414249258</v>
       </c>
       <c r="P8">
-        <v>0.3585943151292527</v>
+        <v>0.4113681414249258</v>
       </c>
       <c r="Q8">
-        <v>90.87629600256984</v>
+        <v>1.292113686124222</v>
       </c>
       <c r="R8">
-        <v>90.87629600256984</v>
+        <v>11.629023175118</v>
       </c>
       <c r="S8">
-        <v>0.02759616679897375</v>
+        <v>0.0003150627461343171</v>
       </c>
       <c r="T8">
-        <v>0.02759616679897375</v>
+        <v>0.000315062746134317</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -974,49 +974,49 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.36517840485216</v>
+        <v>0.01471233333333333</v>
       </c>
       <c r="H9">
-        <v>1.36517840485216</v>
+        <v>0.044137</v>
       </c>
       <c r="I9">
-        <v>0.07695650944445932</v>
+        <v>0.0007658900007253373</v>
       </c>
       <c r="J9">
-        <v>0.07695650944445932</v>
+        <v>0.0007658900007253371</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.2935938373708</v>
+        <v>22.364335</v>
       </c>
       <c r="N9">
-        <v>22.2935938373708</v>
+        <v>67.09300499999999</v>
       </c>
       <c r="O9">
-        <v>0.1200942673823621</v>
+        <v>0.1047532420570173</v>
       </c>
       <c r="P9">
-        <v>0.1200942673823621</v>
+        <v>0.1047532420570173</v>
       </c>
       <c r="Q9">
-        <v>30.43473287332381</v>
+        <v>0.3290315512983333</v>
       </c>
       <c r="R9">
-        <v>30.43473287332381</v>
+        <v>2.961283961685</v>
       </c>
       <c r="S9">
-        <v>0.00924203562203617</v>
+        <v>8.02294606350304E-05</v>
       </c>
       <c r="T9">
-        <v>0.00924203562203617</v>
+        <v>8.022946063503036E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.36517840485216</v>
+        <v>0.01471233333333333</v>
       </c>
       <c r="H10">
-        <v>1.36517840485216</v>
+        <v>0.044137</v>
       </c>
       <c r="I10">
-        <v>0.07695650944445932</v>
+        <v>0.0007658900007253373</v>
       </c>
       <c r="J10">
-        <v>0.07695650944445932</v>
+        <v>0.0007658900007253371</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.9171610286923</v>
+        <v>32.00656633333333</v>
       </c>
       <c r="N10">
-        <v>28.9171610286923</v>
+        <v>96.019699</v>
       </c>
       <c r="O10">
-        <v>0.1557750308834081</v>
+        <v>0.1499168918069617</v>
       </c>
       <c r="P10">
-        <v>0.1557750308834081</v>
+        <v>0.1499168918069617</v>
       </c>
       <c r="Q10">
-        <v>39.4770837660032</v>
+        <v>0.4708912727514444</v>
       </c>
       <c r="R10">
-        <v>39.4770837660032</v>
+        <v>4.238021454763</v>
       </c>
       <c r="S10">
-        <v>0.01198790263538994</v>
+        <v>0.0001148198483747742</v>
       </c>
       <c r="T10">
-        <v>0.01198790263538994</v>
+        <v>0.0001148198483747742</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1098,49 +1098,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>1.36517840485216</v>
+        <v>0.01471233333333333</v>
       </c>
       <c r="H11">
-        <v>1.36517840485216</v>
+        <v>0.044137</v>
       </c>
       <c r="I11">
-        <v>0.07695650944445932</v>
+        <v>0.0007658900007253373</v>
       </c>
       <c r="J11">
-        <v>0.07695650944445932</v>
+        <v>0.0007658900007253371</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.1340634137603</v>
+        <v>36.24501033333333</v>
       </c>
       <c r="N11">
-        <v>36.1340634137603</v>
+        <v>108.735031</v>
       </c>
       <c r="O11">
-        <v>0.1946520558721696</v>
+        <v>0.1697695165452834</v>
       </c>
       <c r="P11">
-        <v>0.1946520558721696</v>
+        <v>0.1697695165452834</v>
       </c>
       <c r="Q11">
-        <v>49.32944305202408</v>
+        <v>0.5332486736941111</v>
       </c>
       <c r="R11">
-        <v>49.32944305202408</v>
+        <v>4.799238063247</v>
       </c>
       <c r="S11">
-        <v>0.01497974277611004</v>
+        <v>0.0001300247751500072</v>
       </c>
       <c r="T11">
-        <v>0.01497974277611004</v>
+        <v>0.0001300247751500072</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -1160,49 +1160,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.36517840485216</v>
+        <v>0.01471233333333333</v>
       </c>
       <c r="H12">
-        <v>1.36517840485216</v>
+        <v>0.044137</v>
       </c>
       <c r="I12">
-        <v>0.07695650944445932</v>
+        <v>0.0007658900007253373</v>
       </c>
       <c r="J12">
-        <v>0.07695650944445932</v>
+        <v>0.0007658900007253371</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.88231356755245</v>
+        <v>7.206563333333333</v>
       </c>
       <c r="N12">
-        <v>6.88231356755245</v>
+        <v>21.61969</v>
       </c>
       <c r="O12">
-        <v>0.03707461487906872</v>
+        <v>0.03375512275486358</v>
       </c>
       <c r="P12">
-        <v>0.03707461487906872</v>
+        <v>0.03375512275486358</v>
       </c>
       <c r="Q12">
-        <v>9.395585857843633</v>
+        <v>0.1060253619477778</v>
       </c>
       <c r="R12">
-        <v>9.395585857843633</v>
+        <v>0.95422825753</v>
       </c>
       <c r="S12">
-        <v>0.002853132950090744</v>
+        <v>2.585271099120632E-05</v>
       </c>
       <c r="T12">
-        <v>0.002853132950090744</v>
+        <v>2.585271099120631E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.01471233333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.044137</v>
+      </c>
+      <c r="I13">
+        <v>0.0007658900007253373</v>
+      </c>
+      <c r="J13">
+        <v>0.0007658900007253371</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>27.84771733333333</v>
+      </c>
+      <c r="N13">
+        <v>83.54315199999999</v>
+      </c>
+      <c r="O13">
+        <v>0.1304370854109484</v>
+      </c>
+      <c r="P13">
+        <v>0.1304370854109484</v>
+      </c>
+      <c r="Q13">
+        <v>0.4097048999804445</v>
+      </c>
+      <c r="R13">
+        <v>3.687344099824</v>
+      </c>
+      <c r="S13">
+        <v>9.990045944000215E-05</v>
+      </c>
+      <c r="T13">
+        <v>9.99004594400021E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.774745</v>
+      </c>
+      <c r="H14">
+        <v>5.324235</v>
+      </c>
+      <c r="I14">
+        <v>0.09238911453002845</v>
+      </c>
+      <c r="J14">
+        <v>0.09238911453002843</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>87.82520466666666</v>
+      </c>
+      <c r="N14">
+        <v>263.475614</v>
+      </c>
+      <c r="O14">
+        <v>0.4113681414249258</v>
+      </c>
+      <c r="P14">
+        <v>0.4113681414249258</v>
+      </c>
+      <c r="Q14">
+        <v>155.8673428561433</v>
+      </c>
+      <c r="R14">
+        <v>1402.80608570529</v>
+      </c>
+      <c r="S14">
+        <v>0.03800593833211241</v>
+      </c>
+      <c r="T14">
+        <v>0.0380059383321124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.774745</v>
+      </c>
+      <c r="H15">
+        <v>5.324235</v>
+      </c>
+      <c r="I15">
+        <v>0.09238911453002845</v>
+      </c>
+      <c r="J15">
+        <v>0.09238911453002843</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>22.364335</v>
+      </c>
+      <c r="N15">
+        <v>67.09300499999999</v>
+      </c>
+      <c r="O15">
+        <v>0.1047532420570173</v>
+      </c>
+      <c r="P15">
+        <v>0.1047532420570173</v>
+      </c>
+      <c r="Q15">
+        <v>39.690991719575</v>
+      </c>
+      <c r="R15">
+        <v>357.2189254761749</v>
+      </c>
+      <c r="S15">
+        <v>0.009678059277797562</v>
+      </c>
+      <c r="T15">
+        <v>0.009678059277797559</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.36517840485216</v>
-      </c>
-      <c r="H13">
-        <v>1.36517840485216</v>
-      </c>
-      <c r="I13">
-        <v>0.07695650944445932</v>
-      </c>
-      <c r="J13">
-        <v>0.07695650944445932</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>24.8396490670076</v>
-      </c>
-      <c r="N13">
-        <v>24.8396490670076</v>
-      </c>
-      <c r="O13">
-        <v>0.1338097158537389</v>
-      </c>
-      <c r="P13">
-        <v>0.1338097158537389</v>
-      </c>
-      <c r="Q13">
-        <v>33.91055249038488</v>
-      </c>
-      <c r="R13">
-        <v>33.91055249038488</v>
-      </c>
-      <c r="S13">
-        <v>0.01029752866185867</v>
-      </c>
-      <c r="T13">
-        <v>0.01029752866185867</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.774745</v>
+      </c>
+      <c r="H16">
+        <v>5.324235</v>
+      </c>
+      <c r="I16">
+        <v>0.09238911453002845</v>
+      </c>
+      <c r="J16">
+        <v>0.09238911453002843</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>32.00656633333333</v>
+      </c>
+      <c r="N16">
+        <v>96.019699</v>
+      </c>
+      <c r="O16">
+        <v>0.1499168918069617</v>
+      </c>
+      <c r="P16">
+        <v>0.1499168918069617</v>
+      </c>
+      <c r="Q16">
+        <v>56.80349356725166</v>
+      </c>
+      <c r="R16">
+        <v>511.231442105265</v>
+      </c>
+      <c r="S16">
+        <v>0.01385068888713927</v>
+      </c>
+      <c r="T16">
+        <v>0.01385068888713927</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.774745</v>
+      </c>
+      <c r="H17">
+        <v>5.324235</v>
+      </c>
+      <c r="I17">
+        <v>0.09238911453002845</v>
+      </c>
+      <c r="J17">
+        <v>0.09238911453002843</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>36.24501033333333</v>
+      </c>
+      <c r="N17">
+        <v>108.735031</v>
+      </c>
+      <c r="O17">
+        <v>0.1697695165452834</v>
+      </c>
+      <c r="P17">
+        <v>0.1697695165452834</v>
+      </c>
+      <c r="Q17">
+        <v>64.32565086403167</v>
+      </c>
+      <c r="R17">
+        <v>578.9308577762851</v>
+      </c>
+      <c r="S17">
+        <v>0.01568485530780974</v>
+      </c>
+      <c r="T17">
+        <v>0.01568485530780974</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.774745</v>
+      </c>
+      <c r="H18">
+        <v>5.324235</v>
+      </c>
+      <c r="I18">
+        <v>0.09238911453002845</v>
+      </c>
+      <c r="J18">
+        <v>0.09238911453002843</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>7.206563333333333</v>
+      </c>
+      <c r="N18">
+        <v>21.61969</v>
+      </c>
+      <c r="O18">
+        <v>0.03375512275486358</v>
+      </c>
+      <c r="P18">
+        <v>0.03375512275486358</v>
+      </c>
+      <c r="Q18">
+        <v>12.78981224301667</v>
+      </c>
+      <c r="R18">
+        <v>115.10831018715</v>
+      </c>
+      <c r="S18">
+        <v>0.003118605902174261</v>
+      </c>
+      <c r="T18">
+        <v>0.00311860590217426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.774745</v>
+      </c>
+      <c r="H19">
+        <v>5.324235</v>
+      </c>
+      <c r="I19">
+        <v>0.09238911453002845</v>
+      </c>
+      <c r="J19">
+        <v>0.09238911453002843</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>27.84771733333333</v>
+      </c>
+      <c r="N19">
+        <v>83.54315199999999</v>
+      </c>
+      <c r="O19">
+        <v>0.1304370854109484</v>
+      </c>
+      <c r="P19">
+        <v>0.1304370854109484</v>
+      </c>
+      <c r="Q19">
+        <v>49.42259709874666</v>
+      </c>
+      <c r="R19">
+        <v>444.8033738887199</v>
+      </c>
+      <c r="S19">
+        <v>0.01205096682299521</v>
+      </c>
+      <c r="T19">
+        <v>0.01205096682299521</v>
       </c>
     </row>
   </sheetData>
